--- a/MySQL/configuration/recetas_maestras.xlsx
+++ b/MySQL/configuration/recetas_maestras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CDA1D8-13AA-4201-8086-6242F64B26FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA55E2A5-6B69-40CE-A5FA-1298DAB45DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id_receta_maestra</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>fecha_creada</t>
+  </si>
+  <si>
+    <t>Dispensar base, cogerla y posarla en el mismo sitio.</t>
+  </si>
+  <si>
+    <t>RECETA_DISPENSAR</t>
   </si>
 </sst>
 </file>
@@ -53,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d\-m\-yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="d\-m\-yy\ h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -86,7 +92,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,7 +422,25 @@
         <v>45790.795138888891</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45799.404861111114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MySQL/configuration/recetas_maestras.xlsx
+++ b/MySQL/configuration/recetas_maestras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA55E2A5-6B69-40CE-A5FA-1298DAB45DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EDBDD0-78AC-44B9-80A2-98B6BA2A8760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id_receta_maestra</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>RECETA_DISPENSAR</t>
+  </si>
+  <si>
+    <t>RECETA_MOVER</t>
+  </si>
+  <si>
+    <t>Ir a la estacion DESTINO y volver.</t>
   </si>
 </sst>
 </file>
@@ -373,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,6 +445,23 @@
         <v>45799.404861111114</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45828.397916666669</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MySQL/configuration/recetas_maestras.xlsx
+++ b/MySQL/configuration/recetas_maestras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNIOVI\Master\IntegracionDeSistemas\TrabajoIntegracion\DockerIntegracion\MySQL\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EDBDD0-78AC-44B9-80A2-98B6BA2A8760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6393C485-2348-4D3E-94F6-0FAC748A1035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id_receta_maestra</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Ir a la estacion DESTINO y volver.</t>
+  </si>
+  <si>
+    <t>RECETA_AUTOMATICO</t>
+  </si>
+  <si>
+    <t>Produccion automatica. Coge una base, inserta un spinner y la deja en ESTACION_DESTINO.</t>
   </si>
 </sst>
 </file>
@@ -379,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,6 +468,23 @@
         <v>45828.397916666669</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45828.42291666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
